--- a/biology/Médecine/Pityriasis/Pityriasis.xlsx
+++ b/biology/Médecine/Pityriasis/Pityriasis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pityriasis est un groupe de dermatoses qui provoquent une desquamation de la peau.  Le terme  dérive du grec πιτυρίασις « dartre farineux » lui-même issue de πίτυρον 'son, partie la plus grossière du blé moulu )[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pityriasis est un groupe de dermatoses qui provoquent une desquamation de la peau.  Le terme  dérive du grec πιτυρίασις « dartre farineux » lui-même issue de πίτυρον 'son, partie la plus grossière du blé moulu ).
 Cette famille de maladies dermatologiques regroupe :
 pityriasis rosé de Gibert;
 pityriasis versicolor;
@@ -490,8 +502,8 @@
 pityriasis rubra pilaire;
 pityriasis amiantace;
 pityriasis capitis;
-pityriasis circiné , autrefois attribué à un germe de type mycoderme[2] ;
-pityriasis marginé, également autrefois attribué à un mycoderme[2].
+pityriasis circiné , autrefois attribué à un germe de type mycoderme ;
+pityriasis marginé, également autrefois attribué à un mycoderme.
 </t>
         </is>
       </c>
